--- a/output/StructureDefinition-eicr-anon-organization.xlsx
+++ b/output/StructureDefinition-eicr-anon-organization.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T06:32:23+10:00</t>
+    <t>2024-06-13T06:51:52+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-organization.xlsx
+++ b/output/StructureDefinition-eicr-anon-organization.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T06:51:52+10:00</t>
+    <t>2024-06-13T11:16:16+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-organization.xlsx
+++ b/output/StructureDefinition-eicr-anon-organization.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T11:16:16+10:00</t>
+    <t>2024-06-14T06:31:35+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-organization.xlsx
+++ b/output/StructureDefinition-eicr-anon-organization.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T05:55:02+10:00</t>
+    <t>2024-06-26T06:31:28+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,8 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This Organization profile represents an anonymized eCR Organization.
-It is based on the **US Public Health Organization** profile with further constraints to require masking of name, address, and telecom.</t>
+    <t>This Organization profile represents an anonymized eCR Organization.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/output/StructureDefinition-eicr-anon-organization.xlsx
+++ b/output/StructureDefinition-eicr-anon-organization.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T06:31:28+10:00</t>
+    <t>2024-06-26T06:54:29+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-organization.xlsx
+++ b/output/StructureDefinition-eicr-anon-organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="553">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T06:54:29+10:00</t>
+    <t>2024-06-28T19:57:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -393,7 +393,188 @@
     <t>DomainResource.text</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {`div` ~ '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'}</t>
+  </si>
+  <si>
     <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Organization.text.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Organization.text.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Organization.text.extension:dataAbsentReason</t>
+  </si>
+  <si>
+    <t>dataAbsentReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {data-absent-reason}
+</t>
+  </si>
+  <si>
+    <t>Use data-absent-reason with value 'masked'</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value or elements in the element that is extended are missing.</t>
+  </si>
+  <si>
+    <t>ANY.nullFlavor</t>
+  </si>
+  <si>
+    <t>Organization.text.extension:dataAbsentReason.id</t>
+  </si>
+  <si>
+    <t>Organization.text.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Organization.text.extension:dataAbsentReason.extension</t>
+  </si>
+  <si>
+    <t>Organization.text.extension.extension</t>
+  </si>
+  <si>
+    <t>Organization.text.extension:dataAbsentReason.url</t>
+  </si>
+  <si>
+    <t>Organization.text.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/data-absent-reason</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Organization.text.extension:dataAbsentReason.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.text.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>masked</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>Organization.text.status</t>
+  </si>
+  <si>
+    <t>generated | extensions | additional | empty</t>
+  </si>
+  <si>
+    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
+  </si>
+  <si>
+    <t>The status of a resource narrative.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/narrative-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Narrative.status</t>
+  </si>
+  <si>
+    <t>Organization.text.div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xhtml
+</t>
+  </si>
+  <si>
+    <t>Set to '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'</t>
+  </si>
+  <si>
+    <t>The actual narrative content, a stripped down version of XHTML.</t>
+  </si>
+  <si>
+    <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
+  </si>
+  <si>
+    <t>Narrative.div</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+txt-1:The narrative SHALL contain only the basic html formatting elements and attributes described in chapters 7-11 (except section 4 of chapter 9) and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained style attributes {htmlChecks()}txt-2:The narrative SHALL have some non-whitespace content {htmlChecks()}</t>
   </si>
   <si>
     <t>Organization.contained</t>
@@ -419,9 +600,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Organization.extension</t>
   </si>
   <si>
@@ -429,10 +607,6 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Additional content defined by implementations</t>
   </si>
   <si>
@@ -443,10 +617,6 @@
   </si>
   <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Organization.modifierExtension</t>
@@ -488,9 +658,6 @@
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t xml:space="preserve">org-1
 </t>
   </si>
@@ -501,44 +668,18 @@
     <t>.scopes[Role](classCode=IDENT)</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>FiveWs.identifier</t>
   </si>
   <si>
     <t>Organization.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Organization.identifier.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Organization.identifier.use</t>
   </si>
   <si>
@@ -552,9 +693,6 @@
   </si>
   <si>
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>Identifies the purpose for this identifier, if known .</t>
@@ -851,41 +989,18 @@
     <t>Organization.name.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t>Organization.name.extension:dataAbsentReason</t>
   </si>
   <si>
-    <t>dataAbsentReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {data-absent-reason}
-</t>
-  </si>
-  <si>
     <t>A value for name is not allowed, must use data-absent-reason with value 'masked'</t>
   </si>
   <si>
-    <t>Provides a reason why the expected value or elements in the element that is extended are missing.</t>
-  </si>
-  <si>
-    <t>ANY.nullFlavor</t>
-  </si>
-  <si>
     <t>Organization.name.extension:dataAbsentReason.id</t>
   </si>
   <si>
     <t>Organization.name.extension.id</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Organization.name.extension:dataAbsentReason.extension</t>
   </si>
   <si>
@@ -898,44 +1013,10 @@
     <t>Organization.name.extension.url</t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/data-absent-reason</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
     <t>Organization.name.extension:dataAbsentReason.value[x]</t>
   </si>
   <si>
     <t>Organization.name.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>masked</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext-1
-</t>
   </si>
   <si>
     <t>Organization.name.value</t>
@@ -1972,7 +2053,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN74"/>
+  <dimension ref="A1:AN83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2809,13 +2890,13 @@
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>75</v>
@@ -2826,21 +2907,21 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>75</v>
@@ -2860,9 +2941,7 @@
       <c r="M8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="N8" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>75</v>
@@ -2911,25 +2990,25 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>75</v>
@@ -2940,18 +3019,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -2966,17 +3045,15 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -3013,16 +3090,16 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>135</v>
@@ -3043,7 +3120,7 @@
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>75</v>
@@ -3057,43 +3134,41 @@
         <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
       </c>
@@ -3141,7 +3216,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -3159,7 +3234,7 @@
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>
@@ -3170,10 +3245,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3184,32 +3259,28 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
       </c>
@@ -3245,49 +3316,51 @@
         <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3298,7 +3371,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -3310,13 +3383,13 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3355,37 +3428,37 @@
         <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
@@ -3396,21 +3469,21 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -3422,16 +3495,16 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3439,7 +3512,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>75</v>
@@ -3469,37 +3542,37 @@
         <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>75</v>
@@ -3510,10 +3583,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3521,7 +3594,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>85</v>
@@ -3530,32 +3603,28 @@
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>105</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>75</v>
@@ -3573,13 +3642,11 @@
         <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>75</v>
@@ -3597,7 +3664,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -3606,16 +3673,16 @@
         <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>75</v>
@@ -3626,10 +3693,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3637,7 +3704,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>85</v>
@@ -3649,23 +3716,19 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>75</v>
       </c>
@@ -3689,13 +3752,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -3713,10 +3776,10 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>85</v>
@@ -3728,10 +3791,10 @@
         <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>75</v>
@@ -3742,10 +3805,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3753,35 +3816,33 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
       </c>
@@ -3793,7 +3854,7 @@
         <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>75</v>
@@ -3829,10 +3890,10 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>85</v>
@@ -3841,16 +3902,16 @@
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>75</v>
@@ -3858,42 +3919,42 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3907,7 +3968,7 @@
         <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>75</v>
@@ -3943,28 +4004,28 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>75</v>
@@ -3972,21 +4033,21 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -3995,18 +4056,20 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -4055,28 +4118,28 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>75</v>
@@ -4084,44 +4147,46 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>75</v>
       </c>
@@ -4169,28 +4234,28 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>75</v>
@@ -4198,14 +4263,12 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>75</v>
       </c>
@@ -4214,7 +4277,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>86</v>
@@ -4226,17 +4289,19 @@
         <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -4246,7 +4311,7 @@
         <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>75</v>
@@ -4273,19 +4338,17 @@
         <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -4294,34 +4357,32 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>154</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>75</v>
       </c>
@@ -4339,21 +4400,19 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
       </c>
@@ -4362,7 +4421,7 @@
         <v>75</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>75</v>
@@ -4401,81 +4460,77 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q22" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
         <v>75</v>
       </c>
@@ -4507,51 +4562,51 @@
         <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>240</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4562,31 +4617,31 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -4611,13 +4666,13 @@
         <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>75</v>
@@ -4635,13 +4690,13 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
@@ -4650,24 +4705,24 @@
         <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>251</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4675,13 +4730,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>75</v>
@@ -4690,19 +4745,19 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -4727,13 +4782,13 @@
         <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>75</v>
@@ -4751,7 +4806,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4760,19 +4815,19 @@
         <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>257</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -4780,10 +4835,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4797,25 +4852,29 @@
         <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
       </c>
@@ -4827,7 +4886,7 @@
         <v>75</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>75</v>
@@ -4863,7 +4922,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4875,16 +4934,16 @@
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>75</v>
@@ -4892,10 +4951,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4903,30 +4962,32 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>75</v>
@@ -4939,7 +5000,7 @@
         <v>75</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>75</v>
@@ -4963,38 +5024,40 @@
         <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AC26" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>75</v>
@@ -5002,41 +5065,39 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="I27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="K27" t="s" s="2">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5087,28 +5148,28 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>75</v>
@@ -5116,10 +5177,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5139,18 +5200,20 @@
         <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -5199,7 +5262,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>159</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -5208,19 +5271,19 @@
         <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>75</v>
@@ -5228,12 +5291,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>75</v>
       </c>
@@ -5242,28 +5307,30 @@
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>266</v>
+        <v>199</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>75</v>
       </c>
@@ -5272,7 +5339,7 @@
         <v>75</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>75</v>
+        <v>269</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>75</v>
@@ -5299,19 +5366,19 @@
         <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5320,38 +5387,40 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>85</v>
@@ -5363,30 +5432,30 @@
         <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>283</v>
+        <v>75</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>75</v>
+        <v>273</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>75</v>
@@ -5425,39 +5494,39 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5471,31 +5540,37 @@
         <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="R31" t="s" s="2">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>75</v>
@@ -5513,11 +5588,13 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
@@ -5535,7 +5612,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5544,30 +5621,30 @@
         <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>128</v>
+        <v>282</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>75</v>
+        <v>283</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>75</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5578,7 +5655,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -5587,19 +5664,23 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
       </c>
@@ -5620,16 +5701,16 @@
         <v>75</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>296</v>
+        <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>75</v>
+        <v>292</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -5647,39 +5728,39 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>75</v>
+        <v>293</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>75</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5687,34 +5768,34 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -5763,28 +5844,28 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>301</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>75</v>
+        <v>302</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>75</v>
@@ -5792,10 +5873,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5803,13 +5884,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>75</v>
@@ -5818,20 +5899,16 @@
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>304</v>
+        <v>123</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N34" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="O34" t="s" s="2">
-        <v>308</v>
-      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5879,28 +5956,28 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>126</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>309</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>313</v>
+        <v>75</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>75</v>
@@ -5908,10 +5985,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5919,10 +5996,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5934,13 +6011,13 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5979,37 +6056,35 @@
         <v>75</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>75</v>
@@ -6020,12 +6095,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>75</v>
       </c>
@@ -6034,10 +6111,10 @@
         <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>75</v>
@@ -6046,13 +6123,13 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>266</v>
+        <v>141</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6091,19 +6168,19 @@
         <v>75</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6121,7 +6198,7 @@
         <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>75</v>
@@ -6132,26 +6209,24 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>75</v>
@@ -6160,13 +6235,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>269</v>
+        <v>87</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>317</v>
+        <v>124</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>271</v>
+        <v>125</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6217,25 +6292,25 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>272</v>
+        <v>127</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>75</v>
@@ -6246,10 +6321,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6260,7 +6335,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -6272,13 +6347,13 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6317,37 +6392,37 @@
         <v>75</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>75</v>
@@ -6358,10 +6433,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6369,10 +6444,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -6384,22 +6459,24 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>265</v>
+        <v>150</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>75</v>
@@ -6429,37 +6506,37 @@
         <v>75</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
@@ -6470,10 +6547,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6496,24 +6573,22 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>280</v>
+        <v>158</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>75</v>
@@ -6531,13 +6606,11 @@
         <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>75</v>
@@ -6555,25 +6628,25 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>284</v>
+        <v>163</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>75</v>
@@ -6584,10 +6657,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6595,7 +6668,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>85</v>
@@ -6610,13 +6683,13 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6625,7 +6698,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>75</v>
@@ -6640,14 +6713,16 @@
         <v>75</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>75</v>
+        <v>322</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Y41" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z41" t="s" s="2">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>75</v>
@@ -6665,7 +6740,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6674,16 +6749,16 @@
         <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>75</v>
@@ -6694,10 +6769,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6708,28 +6783,32 @@
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
       </c>
@@ -6753,13 +6832,13 @@
         <v>75</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>329</v>
+        <v>75</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>75</v>
@@ -6777,28 +6856,28 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>332</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>333</v>
+        <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>75</v>
@@ -6806,10 +6885,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6817,10 +6896,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>86</v>
@@ -6829,22 +6908,22 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>156</v>
+        <v>330</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>75</v>
@@ -6893,28 +6972,28 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>336</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>204</v>
+        <v>339</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>75</v>
@@ -6922,10 +7001,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6942,26 +7021,22 @@
         <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>124</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6985,13 +7060,13 @@
         <v>75</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>349</v>
+        <v>75</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>350</v>
+        <v>75</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>75</v>
@@ -7009,7 +7084,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -7021,16 +7096,16 @@
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>352</v>
+        <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>353</v>
+        <v>127</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>354</v>
+        <v>75</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>75</v>
@@ -7038,10 +7113,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7049,10 +7124,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
@@ -7061,20 +7136,18 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>356</v>
+        <v>129</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
+        <v>130</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
@@ -7111,37 +7184,37 @@
         <v>75</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>360</v>
+        <v>135</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -7152,39 +7225,41 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>363</v>
+        <v>141</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7235,28 +7310,28 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>364</v>
+        <v>135</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>365</v>
+        <v>142</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>75</v>
@@ -7264,10 +7339,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7275,13 +7350,13 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>75</v>
@@ -7290,20 +7365,16 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>367</v>
+        <v>87</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>124</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>75</v>
       </c>
@@ -7351,28 +7422,28 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>366</v>
+        <v>126</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>372</v>
+        <v>145</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>373</v>
+        <v>75</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>374</v>
+        <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>375</v>
+        <v>127</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>75</v>
@@ -7380,10 +7451,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7394,7 +7465,7 @@
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -7406,13 +7477,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7451,37 +7522,37 @@
         <v>75</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
@@ -7492,10 +7563,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7506,7 +7577,7 @@
         <v>85</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -7518,22 +7589,24 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>265</v>
+        <v>150</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>75</v>
@@ -7563,37 +7636,37 @@
         <v>75</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -7604,14 +7677,12 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>75</v>
       </c>
@@ -7623,7 +7694,7 @@
         <v>85</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>75</v>
@@ -7632,13 +7703,13 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>269</v>
+        <v>105</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>317</v>
+        <v>158</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>271</v>
+        <v>159</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7647,7 +7718,7 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>75</v>
@@ -7665,13 +7736,11 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>75</v>
@@ -7689,25 +7758,25 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI50" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AJ50" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -7718,10 +7787,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7735,22 +7804,22 @@
         <v>85</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>157</v>
+        <v>353</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>158</v>
+        <v>354</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7777,13 +7846,13 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>75</v>
+        <v>355</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>75</v>
+        <v>356</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>75</v>
@@ -7801,7 +7870,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>159</v>
+        <v>357</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7810,19 +7879,19 @@
         <v>85</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>275</v>
+        <v>358</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>75</v>
+        <v>359</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>153</v>
+        <v>360</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>75</v>
@@ -7830,10 +7899,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7844,28 +7913,32 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>265</v>
+        <v>363</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>75</v>
       </c>
@@ -7901,40 +7974,40 @@
         <v>75</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>164</v>
+        <v>367</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>75</v>
+        <v>368</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>75</v>
+        <v>369</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>75</v>
@@ -7942,10 +8015,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7953,7 +8026,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>85</v>
@@ -7962,30 +8035,32 @@
         <v>75</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>280</v>
+        <v>371</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>281</v>
+        <v>372</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>283</v>
+        <v>75</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>75</v>
@@ -8003,13 +8078,13 @@
         <v>75</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>75</v>
+        <v>376</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>75</v>
@@ -8027,10 +8102,10 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>284</v>
+        <v>377</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>85</v>
@@ -8039,16 +8114,16 @@
         <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>75</v>
+        <v>378</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>128</v>
+        <v>379</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>75</v>
@@ -8056,10 +8131,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8067,7 +8142,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>85</v>
@@ -8079,25 +8154,27 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>105</v>
+        <v>382</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>287</v>
+        <v>383</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>75</v>
@@ -8115,11 +8192,13 @@
         <v>75</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>75</v>
@@ -8137,7 +8216,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>291</v>
+        <v>386</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -8146,16 +8225,16 @@
         <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>75</v>
@@ -8186,13 +8265,13 @@
         <v>75</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>105</v>
+        <v>250</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>388</v>
@@ -8200,12 +8279,8 @@
       <c r="M55" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>391</v>
-      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>75</v>
       </c>
@@ -8217,7 +8292,7 @@
         <v>75</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>392</v>
+        <v>75</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>75</v>
@@ -8229,13 +8304,13 @@
         <v>75</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>393</v>
+        <v>75</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>394</v>
+        <v>75</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>75</v>
@@ -8253,7 +8328,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8268,13 +8343,13 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>396</v>
+        <v>155</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>397</v>
+        <v>256</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>75</v>
@@ -8282,10 +8357,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8293,33 +8368,35 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>105</v>
+        <v>393</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>75</v>
       </c>
@@ -8331,7 +8408,7 @@
         <v>75</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>402</v>
+        <v>75</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>75</v>
@@ -8343,13 +8420,13 @@
         <v>75</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>403</v>
+        <v>75</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>75</v>
@@ -8367,28 +8444,28 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>75</v>
+        <v>398</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>399</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>75</v>
@@ -8396,10 +8473,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8419,23 +8496,19 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>75</v>
       </c>
@@ -8447,7 +8520,7 @@
         <v>75</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>412</v>
+        <v>75</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>75</v>
@@ -8483,7 +8556,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>413</v>
+        <v>126</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8495,13 +8568,13 @@
         <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>414</v>
+        <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>415</v>
+        <v>127</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>75</v>
@@ -8512,10 +8585,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8523,28 +8596,28 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>418</v>
+        <v>130</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>419</v>
+        <v>131</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8559,7 +8632,7 @@
         <v>75</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>75</v>
@@ -8583,19 +8656,19 @@
         <v>75</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>421</v>
+        <v>135</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8607,16 +8680,16 @@
         <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>423</v>
+        <v>75</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>424</v>
+        <v>75</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>75</v>
@@ -8624,18 +8697,20 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="D59" t="s" s="2">
-        <v>426</v>
+        <v>75</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>85</v>
@@ -8647,16 +8722,16 @@
         <v>75</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>427</v>
+        <v>343</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>428</v>
+        <v>141</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8671,7 +8746,7 @@
         <v>75</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>429</v>
+        <v>75</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>75</v>
@@ -8707,28 +8782,28 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>430</v>
+        <v>135</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>431</v>
+        <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>432</v>
+        <v>142</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>433</v>
+        <v>75</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>75</v>
@@ -8736,14 +8811,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>435</v>
+        <v>75</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8759,20 +8834,18 @@
         <v>75</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>436</v>
+        <v>124</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -8785,7 +8858,7 @@
         <v>75</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>439</v>
+        <v>75</v>
       </c>
       <c r="U60" t="s" s="2">
         <v>75</v>
@@ -8821,7 +8894,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>440</v>
+        <v>126</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8830,16 +8903,16 @@
         <v>85</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>441</v>
+        <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>442</v>
+        <v>127</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>75</v>
@@ -8850,39 +8923,39 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>444</v>
+        <v>75</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>445</v>
+        <v>130</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>446</v>
+        <v>131</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8909,52 +8982,52 @@
         <v>75</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>447</v>
+        <v>75</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>448</v>
+        <v>75</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>449</v>
+        <v>135</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>450</v>
+        <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>451</v>
+        <v>75</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>452</v>
+        <v>75</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>75</v>
@@ -8962,54 +9035,56 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>453</v>
+        <v>409</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>454</v>
+        <v>75</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>455</v>
+        <v>150</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>457</v>
+        <v>75</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>75</v>
@@ -9045,10 +9120,10 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>458</v>
+        <v>154</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>85</v>
@@ -9057,16 +9132,16 @@
         <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>459</v>
+        <v>75</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>460</v>
+        <v>155</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>461</v>
+        <v>75</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>75</v>
@@ -9074,10 +9149,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>462</v>
+        <v>411</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>462</v>
+        <v>412</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9085,39 +9160,37 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>463</v>
+        <v>158</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>75</v>
@@ -9135,13 +9208,11 @@
         <v>75</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>75</v>
@@ -9159,7 +9230,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>466</v>
+        <v>163</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -9168,19 +9239,19 @@
         <v>85</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>467</v>
+        <v>75</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>468</v>
+        <v>155</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>469</v>
+        <v>75</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>75</v>
@@ -9188,10 +9259,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>470</v>
+        <v>413</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>470</v>
+        <v>413</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9208,23 +9279,25 @@
         <v>75</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>471</v>
+        <v>414</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O64" t="s" s="2">
-        <v>473</v>
+        <v>417</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>75</v>
@@ -9237,7 +9310,7 @@
         <v>75</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>474</v>
+        <v>418</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>75</v>
@@ -9249,13 +9322,13 @@
         <v>75</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>75</v>
+        <v>419</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>75</v>
+        <v>420</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>75</v>
@@ -9273,7 +9346,7 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>475</v>
+        <v>421</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9288,13 +9361,13 @@
         <v>97</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>476</v>
+        <v>422</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>212</v>
+        <v>423</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>75</v>
@@ -9302,10 +9375,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>477</v>
+        <v>424</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>477</v>
+        <v>424</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9328,18 +9401,18 @@
         <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>214</v>
+        <v>105</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>478</v>
+        <v>425</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>75</v>
       </c>
@@ -9351,7 +9424,7 @@
         <v>75</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>75</v>
+        <v>428</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>75</v>
@@ -9363,13 +9436,13 @@
         <v>75</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>75</v>
+        <v>429</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>75</v>
+        <v>430</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>75</v>
@@ -9387,7 +9460,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>477</v>
+        <v>431</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9402,13 +9475,13 @@
         <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>237</v>
+        <v>432</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>481</v>
+        <v>379</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>75</v>
@@ -9416,10 +9489,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9430,7 +9503,7 @@
         <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>75</v>
@@ -9439,22 +9512,22 @@
         <v>75</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>483</v>
+        <v>123</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>484</v>
+        <v>434</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>485</v>
+        <v>435</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>486</v>
+        <v>436</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>487</v>
+        <v>437</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>75</v>
@@ -9467,7 +9540,7 @@
         <v>75</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>75</v>
+        <v>438</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>75</v>
@@ -9503,13 +9576,13 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>75</v>
@@ -9518,10 +9591,10 @@
         <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>75</v>
+        <v>440</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>488</v>
+        <v>441</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>75</v>
@@ -9532,10 +9605,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>489</v>
+        <v>442</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>489</v>
+        <v>442</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9546,25 +9619,25 @@
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>85</v>
+        <v>443</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>157</v>
+        <v>444</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>158</v>
+        <v>445</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9579,7 +9652,7 @@
         <v>75</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>75</v>
+        <v>446</v>
       </c>
       <c r="U67" t="s" s="2">
         <v>75</v>
@@ -9615,28 +9688,28 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>159</v>
+        <v>447</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>75</v>
+        <v>448</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>153</v>
+        <v>449</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>75</v>
+        <v>450</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>75</v>
@@ -9644,43 +9717,41 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>130</v>
+        <v>452</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>132</v>
+        <v>453</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>75</v>
@@ -9693,7 +9764,7 @@
         <v>75</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>75</v>
+        <v>455</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>75</v>
@@ -9729,28 +9800,28 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>164</v>
+        <v>456</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>75</v>
+        <v>457</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>153</v>
+        <v>458</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>75</v>
+        <v>459</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>75</v>
@@ -9758,46 +9829,44 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>75</v>
       </c>
@@ -9809,7 +9878,7 @@
         <v>75</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>75</v>
+        <v>465</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>75</v>
@@ -9845,25 +9914,25 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>75</v>
+        <v>467</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>128</v>
+        <v>468</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>75</v>
@@ -9874,14 +9943,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>75</v>
+        <v>470</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9891,27 +9960,25 @@
         <v>85</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>499</v>
-      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>75</v>
       </c>
@@ -9935,13 +10002,13 @@
         <v>75</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>501</v>
+        <v>474</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>75</v>
@@ -9959,7 +10026,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9974,13 +10041,13 @@
         <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>75</v>
+        <v>476</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>75</v>
+        <v>478</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>75</v>
@@ -9988,14 +10055,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>75</v>
+        <v>480</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10005,27 +10072,25 @@
         <v>85</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>504</v>
+        <v>123</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>507</v>
-      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>75</v>
       </c>
@@ -10037,7 +10102,7 @@
         <v>75</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>75</v>
+        <v>483</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>75</v>
@@ -10073,7 +10138,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10088,13 +10153,13 @@
         <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>75</v>
+        <v>487</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>75</v>
@@ -10102,10 +10167,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10116,30 +10181,30 @@
         <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>304</v>
+        <v>123</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>75</v>
       </c>
@@ -10187,13 +10252,13 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>75</v>
@@ -10202,13 +10267,13 @@
         <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>75</v>
+        <v>495</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>75</v>
@@ -10216,10 +10281,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10239,20 +10304,20 @@
         <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>367</v>
+        <v>250</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>75</v>
@@ -10265,7 +10330,7 @@
         <v>75</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="U73" t="s" s="2">
         <v>75</v>
@@ -10301,7 +10366,7 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -10316,13 +10381,13 @@
         <v>97</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>521</v>
+        <v>391</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>75</v>
@@ -10330,10 +10395,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10344,7 +10409,7 @@
         <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>75</v>
@@ -10353,20 +10418,20 @@
         <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>523</v>
+        <v>258</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>75</v>
@@ -10415,13 +10480,13 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>75</v>
@@ -10430,20 +10495,1048 @@
         <v>97</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>153</v>
+        <v>507</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="AN74" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN74">
+  <autoFilter ref="A1:AN83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10453,7 +11546,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-eicr-anon-organization.xlsx
+++ b/output/StructureDefinition-eicr-anon-organization.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T19:57:37+10:00</t>
+    <t>2024-06-28T20:58:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-organization.xlsx
+++ b/output/StructureDefinition-eicr-anon-organization.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T20:58:40+10:00</t>
+    <t>2024-06-29T16:05:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -394,7 +394,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {`div` ~ '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'}</t>
+eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {exists() implies `div`.toString().matches('&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;\\s*&lt;p&gt;MASKED&lt;/p&gt;\\s*&lt;/div&gt;')}</t>
   </si>
   <si>
     <t>Act.text?</t>
